--- a/0922엑셀.xlsx
+++ b/0922엑셀.xlsx
@@ -5,25 +5,27 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\212\Documents\GitHub\shingu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\212\Desktop\shingu_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7485" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7485" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="상품코드표" sheetId="1" r:id="rId1"/>
     <sheet name="상품입고내역서" sheetId="2" r:id="rId2"/>
     <sheet name="동적인 영역" sheetId="3" r:id="rId3"/>
     <sheet name="회원증명서" sheetId="4" r:id="rId4"/>
+    <sheet name="조건부서식" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="가입일">'동적인 영역'!$F$4:$F$7</definedName>
     <definedName name="동적상품코드표">OFFSET(상품코드표!$B$10,0,0,COUNTA(상품코드표!$B:$B)-1,9)</definedName>
     <definedName name="발행번호">회원증명서!$D$4</definedName>
+    <definedName name="부서명">조건부서식!$E$7:$E$10</definedName>
     <definedName name="사원명단">OFFSET([1]직원명단!$A$4,0,0,COUNTA([1]직원명단!$A:$A)-1,9)</definedName>
     <definedName name="상품코드">상품코드표!$B$10:$B$15</definedName>
     <definedName name="상품코드표">상품코드표!$B$10:$D$15</definedName>
@@ -32,6 +34,7 @@
     <definedName name="주소">'동적인 영역'!$I$4:$I$7</definedName>
     <definedName name="지약">'동적인 영역'!$H$4:$H$7</definedName>
     <definedName name="지역">'동적인 영역'!$H$4:$H$7</definedName>
+    <definedName name="직급">조건부서식!$F$7:$F$10</definedName>
     <definedName name="탈퇴일">'동적인 영역'!$G$4:$G$7</definedName>
     <definedName name="할인율표">상품코드표!$C$3:$H$4</definedName>
     <definedName name="회원번호">'동적인 영역'!$A$4:$A$7</definedName>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>상품코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -321,6 +324,72 @@
   <si>
     <t>우리 스포츠클럽</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+  </si>
+  <si>
+    <t>사원명단목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근속연수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김송인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍철인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수철</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나문이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산팀</t>
   </si>
 </sst>
 </file>
@@ -330,7 +399,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0&quot;개 이상&quot;"/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -398,9 +467,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -416,10 +482,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,7 +496,120 @@
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -725,11 +907,11 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -773,11 +955,11 @@
       <c r="H4" s="1"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -930,18 +1112,18 @@
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>IFERROR(HLOOKUP(E4,할인율표,2,TRUE),"")</f>
         <v>0.05</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>D4*E4-D4*E4*F4</f>
         <v>22325000</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>20</v>
       </c>
     </row>
@@ -963,11 +1145,11 @@
       <c r="E5">
         <v>200</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f>IFERROR(HLOOKUP(E5,할인율표,2,TRUE),"")</f>
         <v>0.1</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>D5*E5-D5*E5*F5</f>
         <v>46080000</v>
       </c>
@@ -997,11 +1179,11 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="2" t="str">
         <f>IFERROR(HLOOKUP(E6,할인율표,2,TRUE),"")</f>
         <v/>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>D6*E6</f>
         <v>19700000</v>
       </c>
@@ -1024,11 +1206,11 @@
       <c r="E7">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="2" t="str">
         <f>IFERROR(HLOOKUP(E7,할인율표,2,TRUE),"")</f>
         <v/>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f>D7*E7</f>
         <v>7680000</v>
       </c>
@@ -1119,10 +1301,10 @@
       <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>35064</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>39020</v>
       </c>
       <c r="H4">
@@ -1148,10 +1330,10 @@
       <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>36160</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>38478</v>
       </c>
       <c r="H5">
@@ -1177,7 +1359,7 @@
       <c r="E6" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>38868</v>
       </c>
       <c r="H6">
@@ -1203,10 +1385,10 @@
       <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>37437</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>39020</v>
       </c>
       <c r="H7">
@@ -1226,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1238,15 +1420,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1276,15 +1458,15 @@
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="7" t="str">
         <f>INDEX(주소,MATCH(발행번호,주민번호,0))</f>
         <v>서울시 가남구 도곡동</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="9">
@@ -1292,19 +1474,19 @@
         <v>38868</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="7" t="str">
         <f ca="1">"( " &amp; DATEDIF(B6,B7,"y")&amp;"년" &amp; DATEDIF(B6,B7,"ym")&amp;"개월 )"</f>
-        <v>( 9년3개월 )</v>
+        <v>( 9년4개월 )</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="9">
         <f ca="1">IF(INDEX(탈퇴일,MATCH(발행번호,주민번호,0))="",TODAY(),INDEX(탈퇴일,MATCH(발행번호,주민번호,0)))</f>
-        <v>42269</v>
+        <v>42283</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1323,30 +1505,30 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <v>40631</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1368,4 +1550,167 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>10001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>100002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>950000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>10003</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>10004</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>950000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C7:H10">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND($E7=$K$8,$F7=$N$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND($E7=$K$8,$F7=$N$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND($E7=$K$8,$F7=$N$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8">
+      <formula1>직급</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8">
+      <formula1>부서명</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>